--- a/INTLINE/data/193/ABS/850101.xlsx
+++ b/INTLINE/data/193/ABS/850101.xlsx
@@ -12,71 +12,71 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A3348582J">Data1!$H$1:$H$10,Data1!$H$11:$H$489</definedName>
-    <definedName name="A3348582J_Data">Data1!$H$11:$H$489</definedName>
-    <definedName name="A3348582J_Latest">Data1!$H$489</definedName>
-    <definedName name="A3348585R">Data1!$O$1:$O$10,Data1!$O$11:$O$489</definedName>
-    <definedName name="A3348585R_Data">Data1!$O$11:$O$489</definedName>
-    <definedName name="A3348585R_Latest">Data1!$O$489</definedName>
-    <definedName name="A3348588W">Data1!$V$1:$V$10,Data1!$V$11:$V$489</definedName>
-    <definedName name="A3348588W_Data">Data1!$V$11:$V$489</definedName>
-    <definedName name="A3348588W_Latest">Data1!$V$489</definedName>
-    <definedName name="A3348591K">Data1!$B$1:$B$10,Data1!$B$11:$B$489</definedName>
-    <definedName name="A3348591K_Data">Data1!$B$11:$B$489</definedName>
-    <definedName name="A3348591K_Latest">Data1!$B$489</definedName>
-    <definedName name="A3348594T">Data1!$I$1:$I$10,Data1!$I$11:$I$489</definedName>
-    <definedName name="A3348594T_Data">Data1!$I$11:$I$489</definedName>
-    <definedName name="A3348594T_Latest">Data1!$I$489</definedName>
-    <definedName name="A3348597X">Data1!$P$1:$P$10,Data1!$P$11:$P$489</definedName>
-    <definedName name="A3348597X_Data">Data1!$P$11:$P$489</definedName>
-    <definedName name="A3348597X_Latest">Data1!$P$489</definedName>
-    <definedName name="A3348600A">Data1!$C$1:$C$10,Data1!$C$11:$C$489</definedName>
-    <definedName name="A3348600A_Data">Data1!$C$11:$C$489</definedName>
-    <definedName name="A3348600A_Latest">Data1!$C$489</definedName>
-    <definedName name="A3348603J">Data1!$J$1:$J$10,Data1!$J$11:$J$489</definedName>
-    <definedName name="A3348603J_Data">Data1!$J$11:$J$489</definedName>
-    <definedName name="A3348603J_Latest">Data1!$J$489</definedName>
-    <definedName name="A3348606R">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$489</definedName>
-    <definedName name="A3348606R_Data">Data1!$Q$11:$Q$489</definedName>
-    <definedName name="A3348606R_Latest">Data1!$Q$489</definedName>
-    <definedName name="A3348609W">Data1!$D$1:$D$10,Data1!$D$11:$D$489</definedName>
-    <definedName name="A3348609W_Data">Data1!$D$11:$D$489</definedName>
-    <definedName name="A3348609W_Latest">Data1!$D$489</definedName>
-    <definedName name="A3348612K">Data1!$K$1:$K$10,Data1!$K$11:$K$489</definedName>
-    <definedName name="A3348612K_Data">Data1!$K$11:$K$489</definedName>
-    <definedName name="A3348612K_Latest">Data1!$K$489</definedName>
-    <definedName name="A3348615T">Data1!$R$1:$R$10,Data1!$R$11:$R$489</definedName>
-    <definedName name="A3348615T_Data">Data1!$R$11:$R$489</definedName>
-    <definedName name="A3348615T_Latest">Data1!$R$489</definedName>
-    <definedName name="A3348618X">Data1!$E$1:$E$10,Data1!$E$11:$E$489</definedName>
-    <definedName name="A3348618X_Data">Data1!$E$11:$E$489</definedName>
-    <definedName name="A3348618X_Latest">Data1!$E$489</definedName>
-    <definedName name="A3348621L">Data1!$L$1:$L$10,Data1!$L$11:$L$489</definedName>
-    <definedName name="A3348621L_Data">Data1!$L$11:$L$489</definedName>
-    <definedName name="A3348621L_Latest">Data1!$L$489</definedName>
-    <definedName name="A3348624V">Data1!$S$1:$S$10,Data1!$S$11:$S$489</definedName>
-    <definedName name="A3348624V_Data">Data1!$S$11:$S$489</definedName>
-    <definedName name="A3348624V_Latest">Data1!$S$489</definedName>
-    <definedName name="A3348627A">Data1!$F$1:$F$10,Data1!$F$11:$F$489</definedName>
-    <definedName name="A3348627A_Data">Data1!$F$11:$F$489</definedName>
-    <definedName name="A3348627A_Latest">Data1!$F$489</definedName>
-    <definedName name="A3348630R">Data1!$M$1:$M$10,Data1!$M$11:$M$489</definedName>
-    <definedName name="A3348630R_Data">Data1!$M$11:$M$489</definedName>
-    <definedName name="A3348630R_Latest">Data1!$M$489</definedName>
-    <definedName name="A3348633W">Data1!$T$1:$T$10,Data1!$T$11:$T$489</definedName>
-    <definedName name="A3348633W_Data">Data1!$T$11:$T$489</definedName>
-    <definedName name="A3348633W_Latest">Data1!$T$489</definedName>
-    <definedName name="A3348636C">Data1!$G$1:$G$10,Data1!$G$11:$G$489</definedName>
-    <definedName name="A3348636C_Data">Data1!$G$11:$G$489</definedName>
-    <definedName name="A3348636C_Latest">Data1!$G$489</definedName>
-    <definedName name="A3348639K">Data1!$N$1:$N$10,Data1!$N$11:$N$489</definedName>
-    <definedName name="A3348639K_Data">Data1!$N$11:$N$489</definedName>
-    <definedName name="A3348639K_Latest">Data1!$N$489</definedName>
-    <definedName name="A3348642X">Data1!$U$1:$U$10,Data1!$U$11:$U$489</definedName>
-    <definedName name="A3348642X_Data">Data1!$U$11:$U$489</definedName>
-    <definedName name="A3348642X_Latest">Data1!$U$489</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$489</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$489</definedName>
+    <definedName name="A3348582J">Data1!$H$1:$H$10,Data1!$H$11:$H$491</definedName>
+    <definedName name="A3348582J_Data">Data1!$H$11:$H$491</definedName>
+    <definedName name="A3348582J_Latest">Data1!$H$491</definedName>
+    <definedName name="A3348585R">Data1!$O$1:$O$10,Data1!$O$11:$O$491</definedName>
+    <definedName name="A3348585R_Data">Data1!$O$11:$O$491</definedName>
+    <definedName name="A3348585R_Latest">Data1!$O$491</definedName>
+    <definedName name="A3348588W">Data1!$V$1:$V$10,Data1!$V$11:$V$491</definedName>
+    <definedName name="A3348588W_Data">Data1!$V$11:$V$491</definedName>
+    <definedName name="A3348588W_Latest">Data1!$V$491</definedName>
+    <definedName name="A3348591K">Data1!$B$1:$B$10,Data1!$B$11:$B$491</definedName>
+    <definedName name="A3348591K_Data">Data1!$B$11:$B$491</definedName>
+    <definedName name="A3348591K_Latest">Data1!$B$491</definedName>
+    <definedName name="A3348594T">Data1!$I$1:$I$10,Data1!$I$11:$I$491</definedName>
+    <definedName name="A3348594T_Data">Data1!$I$11:$I$491</definedName>
+    <definedName name="A3348594T_Latest">Data1!$I$491</definedName>
+    <definedName name="A3348597X">Data1!$P$1:$P$10,Data1!$P$11:$P$491</definedName>
+    <definedName name="A3348597X_Data">Data1!$P$11:$P$491</definedName>
+    <definedName name="A3348597X_Latest">Data1!$P$491</definedName>
+    <definedName name="A3348600A">Data1!$C$1:$C$10,Data1!$C$11:$C$491</definedName>
+    <definedName name="A3348600A_Data">Data1!$C$11:$C$491</definedName>
+    <definedName name="A3348600A_Latest">Data1!$C$491</definedName>
+    <definedName name="A3348603J">Data1!$J$1:$J$10,Data1!$J$11:$J$491</definedName>
+    <definedName name="A3348603J_Data">Data1!$J$11:$J$491</definedName>
+    <definedName name="A3348603J_Latest">Data1!$J$491</definedName>
+    <definedName name="A3348606R">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$491</definedName>
+    <definedName name="A3348606R_Data">Data1!$Q$11:$Q$491</definedName>
+    <definedName name="A3348606R_Latest">Data1!$Q$491</definedName>
+    <definedName name="A3348609W">Data1!$D$1:$D$10,Data1!$D$11:$D$491</definedName>
+    <definedName name="A3348609W_Data">Data1!$D$11:$D$491</definedName>
+    <definedName name="A3348609W_Latest">Data1!$D$491</definedName>
+    <definedName name="A3348612K">Data1!$K$1:$K$10,Data1!$K$11:$K$491</definedName>
+    <definedName name="A3348612K_Data">Data1!$K$11:$K$491</definedName>
+    <definedName name="A3348612K_Latest">Data1!$K$491</definedName>
+    <definedName name="A3348615T">Data1!$R$1:$R$10,Data1!$R$11:$R$491</definedName>
+    <definedName name="A3348615T_Data">Data1!$R$11:$R$491</definedName>
+    <definedName name="A3348615T_Latest">Data1!$R$491</definedName>
+    <definedName name="A3348618X">Data1!$E$1:$E$10,Data1!$E$11:$E$491</definedName>
+    <definedName name="A3348618X_Data">Data1!$E$11:$E$491</definedName>
+    <definedName name="A3348618X_Latest">Data1!$E$491</definedName>
+    <definedName name="A3348621L">Data1!$L$1:$L$10,Data1!$L$11:$L$491</definedName>
+    <definedName name="A3348621L_Data">Data1!$L$11:$L$491</definedName>
+    <definedName name="A3348621L_Latest">Data1!$L$491</definedName>
+    <definedName name="A3348624V">Data1!$S$1:$S$10,Data1!$S$11:$S$491</definedName>
+    <definedName name="A3348624V_Data">Data1!$S$11:$S$491</definedName>
+    <definedName name="A3348624V_Latest">Data1!$S$491</definedName>
+    <definedName name="A3348627A">Data1!$F$1:$F$10,Data1!$F$11:$F$491</definedName>
+    <definedName name="A3348627A_Data">Data1!$F$11:$F$491</definedName>
+    <definedName name="A3348627A_Latest">Data1!$F$491</definedName>
+    <definedName name="A3348630R">Data1!$M$1:$M$10,Data1!$M$11:$M$491</definedName>
+    <definedName name="A3348630R_Data">Data1!$M$11:$M$491</definedName>
+    <definedName name="A3348630R_Latest">Data1!$M$491</definedName>
+    <definedName name="A3348633W">Data1!$T$1:$T$10,Data1!$T$11:$T$491</definedName>
+    <definedName name="A3348633W_Data">Data1!$T$11:$T$491</definedName>
+    <definedName name="A3348633W_Latest">Data1!$T$491</definedName>
+    <definedName name="A3348636C">Data1!$G$1:$G$10,Data1!$G$11:$G$491</definedName>
+    <definedName name="A3348636C_Data">Data1!$G$11:$G$491</definedName>
+    <definedName name="A3348636C_Latest">Data1!$G$491</definedName>
+    <definedName name="A3348639K">Data1!$N$1:$N$10,Data1!$N$11:$N$491</definedName>
+    <definedName name="A3348639K_Data">Data1!$N$11:$N$491</definedName>
+    <definedName name="A3348639K_Latest">Data1!$N$491</definedName>
+    <definedName name="A3348642X">Data1!$U$1:$U$10,Data1!$U$11:$U$491</definedName>
+    <definedName name="A3348642X_Data">Data1!$U$11:$U$491</definedName>
+    <definedName name="A3348642X_Latest">Data1!$U$491</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$491</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$491</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -3415,32 +3415,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B485" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H485" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="P485" authorId="0">
       <text>
         <r>
@@ -3529,32 +3503,6 @@
             <family val="2"/>
           </rPr>
           <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B486" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H486" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
         </r>
       </text>
     </comment>
@@ -3649,32 +3597,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B487" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H487" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="P487" authorId="0">
       <text>
         <r>
@@ -3763,32 +3685,6 @@
             <family val="2"/>
           </rPr>
           <t>not available</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B488" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H488" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>revised</t>
         </r>
       </text>
     </comment>
@@ -3962,6 +3858,188 @@
       </text>
     </comment>
     <comment ref="V489" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P490" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q490" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R490" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S490" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T490" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U490" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V490" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P491" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q491" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R491" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S491" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T491" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U491" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V491" authorId="0">
       <text>
         <r>
           <rPr>
@@ -4846,10 +4924,10 @@
         <v>30042</v>
       </c>
       <c r="G12" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H12" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>16</v>
@@ -4878,10 +4956,10 @@
         <v>30042</v>
       </c>
       <c r="G13" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H13" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>16</v>
@@ -4910,10 +4988,10 @@
         <v>30042</v>
       </c>
       <c r="G14" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H14" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>16</v>
@@ -4942,10 +5020,10 @@
         <v>30042</v>
       </c>
       <c r="G15" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H15" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>16</v>
@@ -4974,10 +5052,10 @@
         <v>30042</v>
       </c>
       <c r="G16" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H16" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>16</v>
@@ -5006,10 +5084,10 @@
         <v>30042</v>
       </c>
       <c r="G17" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H17" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>16</v>
@@ -5038,10 +5116,10 @@
         <v>30042</v>
       </c>
       <c r="G18" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H18" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>16</v>
@@ -5070,10 +5148,10 @@
         <v>30042</v>
       </c>
       <c r="G19" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H19" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>16</v>
@@ -5102,10 +5180,10 @@
         <v>30042</v>
       </c>
       <c r="G20" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H20" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>16</v>
@@ -5134,10 +5212,10 @@
         <v>30042</v>
       </c>
       <c r="G21" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H21" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>16</v>
@@ -5166,10 +5244,10 @@
         <v>30042</v>
       </c>
       <c r="G22" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H22" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>16</v>
@@ -5198,10 +5276,10 @@
         <v>30042</v>
       </c>
       <c r="G23" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H23" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>16</v>
@@ -5230,10 +5308,10 @@
         <v>30042</v>
       </c>
       <c r="G24" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H24" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>16</v>
@@ -5262,10 +5340,10 @@
         <v>30042</v>
       </c>
       <c r="G25" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H25" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>16</v>
@@ -5294,10 +5372,10 @@
         <v>30042</v>
       </c>
       <c r="G26" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H26" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>16</v>
@@ -5326,10 +5404,10 @@
         <v>30042</v>
       </c>
       <c r="G27" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H27" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>16</v>
@@ -5358,10 +5436,10 @@
         <v>30042</v>
       </c>
       <c r="G28" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H28" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>16</v>
@@ -5390,10 +5468,10 @@
         <v>30042</v>
       </c>
       <c r="G29" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H29" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>16</v>
@@ -5422,10 +5500,10 @@
         <v>30042</v>
       </c>
       <c r="G30" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H30" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>16</v>
@@ -5454,10 +5532,10 @@
         <v>30042</v>
       </c>
       <c r="G31" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H31" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>16</v>
@@ -5486,10 +5564,10 @@
         <v>30042</v>
       </c>
       <c r="G32" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H32" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>16</v>
@@ -5545,7 +5623,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V489"/>
+  <dimension ref="A1:V491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -6037,67 +6115,67 @@
         <v>13</v>
       </c>
       <c r="B8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="D8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="E8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="F8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="G8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="I8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="J8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="K8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="L8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="M8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="N8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="O8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="P8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="Q8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="R8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="S8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="T8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="U8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="V8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -6105,67 +6183,67 @@
         <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="J9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="R9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="S9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="T9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="U9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="V9" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -38359,6 +38437,114 @@
       <c r="T489" s="8"/>
       <c r="U489" s="8"/>
       <c r="V489" s="8"/>
+    </row>
+    <row r="490" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A490" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B490" s="8">
+        <v>13052.6</v>
+      </c>
+      <c r="C490" s="8">
+        <v>5875.3</v>
+      </c>
+      <c r="D490" s="8">
+        <v>2608.6999999999998</v>
+      </c>
+      <c r="E490" s="8">
+        <v>1599.3</v>
+      </c>
+      <c r="F490" s="8">
+        <v>5103.3999999999996</v>
+      </c>
+      <c r="G490" s="8">
+        <v>4554.2</v>
+      </c>
+      <c r="H490" s="8">
+        <v>32793.5</v>
+      </c>
+      <c r="I490" s="8">
+        <v>12939.6</v>
+      </c>
+      <c r="J490" s="8">
+        <v>6188.2</v>
+      </c>
+      <c r="K490" s="8">
+        <v>2824.2</v>
+      </c>
+      <c r="L490" s="8">
+        <v>1828.2</v>
+      </c>
+      <c r="M490" s="8">
+        <v>5290.5</v>
+      </c>
+      <c r="N490" s="8">
+        <v>4555.5</v>
+      </c>
+      <c r="O490" s="8">
+        <v>33626.1</v>
+      </c>
+      <c r="P490" s="8"/>
+      <c r="Q490" s="8"/>
+      <c r="R490" s="8"/>
+      <c r="S490" s="8"/>
+      <c r="T490" s="8"/>
+      <c r="U490" s="8"/>
+      <c r="V490" s="8"/>
+    </row>
+    <row r="491" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A491" s="9">
+        <v>44652</v>
+      </c>
+      <c r="B491" s="8">
+        <v>13033.5</v>
+      </c>
+      <c r="C491" s="8">
+        <v>5463.1</v>
+      </c>
+      <c r="D491" s="8">
+        <v>2767.8</v>
+      </c>
+      <c r="E491" s="8">
+        <v>1725</v>
+      </c>
+      <c r="F491" s="8">
+        <v>4898.5</v>
+      </c>
+      <c r="G491" s="8">
+        <v>4610.3999999999996</v>
+      </c>
+      <c r="H491" s="8">
+        <v>32498.3</v>
+      </c>
+      <c r="I491" s="8">
+        <v>13182.7</v>
+      </c>
+      <c r="J491" s="8">
+        <v>6023.3</v>
+      </c>
+      <c r="K491" s="8">
+        <v>2912.8</v>
+      </c>
+      <c r="L491" s="8">
+        <v>1782.5</v>
+      </c>
+      <c r="M491" s="8">
+        <v>5317.8</v>
+      </c>
+      <c r="N491" s="8">
+        <v>4704</v>
+      </c>
+      <c r="O491" s="8">
+        <v>33923.1</v>
+      </c>
+      <c r="P491" s="8"/>
+      <c r="Q491" s="8"/>
+      <c r="R491" s="8"/>
+      <c r="S491" s="8"/>
+      <c r="T491" s="8"/>
+      <c r="U491" s="8"/>
+      <c r="V491" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
